--- a/Documentation/SprintPlanning.xlsx
+++ b/Documentation/SprintPlanning.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/Team-10-SOEN341_Project_F24/Documentation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAB8351-EFD5-A942-81B3-010466C6EBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>Issue #</t>
   </si>
@@ -170,9 +179,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="docs-Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Haichuan, Francois</t>
     </r>
@@ -193,9 +202,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="docs-Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Haichuan, Francois</t>
     </r>
@@ -216,9 +225,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="docs-Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Haichuan, Francois</t>
     </r>
@@ -239,9 +248,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="docs-Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Haichuan, Francois</t>
     </r>
@@ -278,42 +287,55 @@
   </si>
   <si>
     <t>Allow students to access and view peer reviews of themselves.</t>
+  </si>
+  <si>
+    <t>test test test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="docs-Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -321,7 +343,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -349,11 +371,19 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -368,6 +398,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -376,11 +407,14 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -390,127 +424,90 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -700,29 +697,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.13"/>
-    <col customWidth="1" min="2" max="2" width="50.88"/>
-    <col customWidth="1" min="3" max="3" width="16.88"/>
-    <col customWidth="1" min="4" max="4" width="15.88"/>
-    <col customWidth="1" min="5" max="5" width="97.88"/>
-    <col customWidth="1" min="8" max="8" width="38.5"/>
-    <col customWidth="1" min="9" max="9" width="17.5"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="97.83203125" customWidth="1"/>
+    <col min="8" max="8" width="38.5" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +737,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -751,582 +753,584 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>45564.0</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45564</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>45564.0</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45564</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>45564.0</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45564</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>45564.0</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45564</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>45564.0</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45564</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="12" t="s">
+      <c r="F6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>45564.0</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45564</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>45564.0</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45564</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="D9" s="16">
-        <v>45564.0</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12">
+        <v>45564</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="17" t="s">
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="D10" s="19">
-        <v>45564.0</v>
-      </c>
-      <c r="E10" s="18" t="s">
+      <c r="C10" s="13">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14">
+        <v>45564</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="17" t="s">
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="18" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="18">
-        <v>3.0</v>
-      </c>
-      <c r="D11" s="19">
-        <v>45565.0</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="C11" s="13">
+        <v>3</v>
+      </c>
+      <c r="D11" s="14">
+        <v>45565</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="D12" s="16">
-        <v>45567.0</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="C12" s="11">
+        <v>5</v>
+      </c>
+      <c r="D12" s="12">
+        <v>45567</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="20" t="s">
+      <c r="G12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="18" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="D13" s="19">
-        <v>45569.0</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="C13" s="13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="14">
+        <v>45569</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="23" t="s">
+      <c r="F13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="9">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D14" s="24">
-        <v>45571.0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="18">
+        <v>45571</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="12">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="24">
-        <v>45573.0</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="18">
+        <v>45573</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="25" t="s">
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="9">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="10" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="27" t="s">
+      <c r="F16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="10" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="10" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="26"/>
-      <c r="B19" s="4" t="s">
+      <c r="F18" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="10" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="26"/>
-      <c r="B20" s="4" t="s">
+      <c r="F19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="26"/>
-      <c r="B21" s="4" t="s">
+      <c r="F20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="10" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="26"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="F2:G25">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="F2:G25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/SprintPlanning.xlsx
+++ b/Documentation/SprintPlanning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/Team-10-SOEN341_Project_F24/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAB8351-EFD5-A942-81B3-010466C6EBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914249FB-707A-7F41-8CB8-587A791A15D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="102">
   <si>
     <t>Issue #</t>
   </si>
@@ -177,16 +177,6 @@
     <t>Complex logic for team assignment, prone to bugs</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="docs-Calibri"/>
-      </rPr>
-      <t>Haichuan, Francois</t>
-    </r>
-  </si>
-  <si>
     <t>View All Teams Dashboard</t>
   </si>
   <si>
@@ -200,16 +190,6 @@
     <t>Minimal risk; mainly UI design</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="docs-Calibri"/>
-      </rPr>
-      <t>Haichuan, Francois</t>
-    </r>
-  </si>
-  <si>
     <t>Reassign Students Between Teams</t>
   </si>
   <si>
@@ -223,16 +203,6 @@
     <t>Possibility of incorrect reassignment logic</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="docs-Calibri"/>
-      </rPr>
-      <t>Haichuan, Francois</t>
-    </r>
-  </si>
-  <si>
     <t>Download Team Assignments</t>
   </si>
   <si>
@@ -246,50 +216,148 @@
     <t>Straightforward implementation</t>
   </si>
   <si>
+    <t>As a team, we can finalize user stories</t>
+  </si>
+  <si>
+    <t>As a team, we can decompose tasks and assign them</t>
+  </si>
+  <si>
+    <t>As a team, we can create acceptance tests for Sprint 1</t>
+  </si>
+  <si>
+    <t>Instructors can see teams’ assignments</t>
+  </si>
+  <si>
+    <t>Instructors can upload team rosters via CSV</t>
+  </si>
+  <si>
+    <t>Students can select teammates for evaluation</t>
+  </si>
+  <si>
+    <t>Students can submit selected teammate evaluations</t>
+  </si>
+  <si>
+    <t>Students can rate teammates on a 5-point scale</t>
+  </si>
+  <si>
+    <t>Students can confirm submission of peer assessment</t>
+  </si>
+  <si>
+    <t>As a team, we can run automated tests with CI</t>
+  </si>
+  <si>
+    <t>Instructors and students can see additional assessment dimensions</t>
+  </si>
+  <si>
+    <t>As a team, we can test all completed features</t>
+  </si>
+  <si>
+    <t>As a team, we can finalize and upload meeting notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a team, we can prepare for Sprint Review and Retrospective	</t>
+  </si>
+  <si>
+    <t>Define and finalize user stories for Sprint 2 features and add them to GitHub</t>
+  </si>
+  <si>
+    <t>Break down user stories into tasks, assign tasks based on expertise</t>
+  </si>
+  <si>
+    <t>Develop acceptance tests for Sprint 1 features and link to relevant stories/tasks</t>
+  </si>
+  <si>
+    <t>Implement feature allowing both students and instructors to view team assignments</t>
+  </si>
+  <si>
+    <t>Build functionality to enable instructors to upload rosters via CSV</t>
+  </si>
+  <si>
+    <t>Create intuitive UI for students to select teammates for peer evaluation</t>
+  </si>
+  <si>
+    <t>Develop backend and frontend logic to allow students to select teammates for evaluation</t>
+  </si>
+  <si>
+    <t>Create a 5-point rating system to allow students to rate teammates on “Cooperation”</t>
+  </si>
+  <si>
+    <t>Design and implement a confirmation page post peer assessment submission</t>
+  </si>
+  <si>
+    <t>Configure GitHub Actions to automate builds and run tests for each commit</t>
+  </si>
+  <si>
+    <t>Begin implementing additional dimensions: Conceptual Contribution, Practical Contribution, Work Ethic</t>
+  </si>
+  <si>
+    <t>Test all completed features against success criteria for functionality and reliability</t>
+  </si>
+  <si>
+    <t>Record and upload meeting notes along with individual time logs for Sprint 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare for Sprint Review and Retrospective; gather feedback and analyze team performance	</t>
+  </si>
+  <si>
+    <t>Essential planning step; low risk of misalignment</t>
+  </si>
+  <si>
+    <t>Misaligned task allocation could cause delays</t>
+  </si>
+  <si>
+    <t>Database manipulation required, moderate risk</t>
+  </si>
+  <si>
+    <t>Potential file format or validation issues</t>
+  </si>
+  <si>
+    <t>Low risk due to simple UI design requirements</t>
+  </si>
+  <si>
+    <t>Straightforward implementation; limited risks</t>
+  </si>
+  <si>
+    <t>Low risk; simple page to confirm submission</t>
+  </si>
+  <si>
+    <t>Potential integration and testing issues</t>
+  </si>
+  <si>
+    <t>Complexity in integrating additional fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensures Sprint 1 features are thoroughly tested	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potential integration challenges	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing failures could delay finalization	</t>
+  </si>
+  <si>
+    <t>Low risk; primarily a documentation task</t>
+  </si>
+  <si>
+    <t>Low risk; primarily a team reflection activity</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="docs-Calibri"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Haichuan, Francois</t>
     </r>
   </si>
   <si>
-    <t>Instructors can see teams' submissions</t>
-  </si>
-  <si>
-    <t>Display team submissions in the instructor dashboard for review.</t>
-  </si>
-  <si>
-    <t>Instructors can see students' individual grades</t>
-  </si>
-  <si>
-    <t>Provide individual grade visibility for each student in the instructor dashboard</t>
-  </si>
-  <si>
-    <t>Students can see their grades</t>
-  </si>
-  <si>
-    <t>Implement student grade view functionality on the student dashboard.</t>
-  </si>
-  <si>
-    <t>Intructors can see teams' peer reviews</t>
-  </si>
-  <si>
-    <t>Show peer review summaries for each team in the instructor dashboard.</t>
-  </si>
-  <si>
-    <t>Students can see the reviews written about them</t>
-  </si>
-  <si>
-    <t>As a user, we can get notified when there is a grade updated</t>
-  </si>
-  <si>
-    <t>Allow students to access and view peer reviews of themselves.</t>
-  </si>
-  <si>
-    <t>test test test</t>
+    <t>jeffrey</t>
+  </si>
+  <si>
+    <t>jefrey, Varun</t>
   </si>
 </sst>
 </file>
@@ -299,24 +367,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -333,9 +389,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="docs-Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -370,14 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -387,53 +459,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,54 +476,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,627 +726,974 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="50.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="97.83203125" customWidth="1"/>
-    <col min="8" max="8" width="38.5" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="193.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" style="1"/>
+    <col min="8" max="8" width="93.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>45564</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="10">
         <v>4</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>45564</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="10">
         <v>4</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>45564</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="10">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>45564</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="F5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="8">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>45564</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="F6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="10">
         <v>2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>45564</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="F7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>45564</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="F8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="12">
         <v>2</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="13">
         <v>45564</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="F9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>2</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>45564</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="F10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="8">
+    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <v>3</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>45565</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="F11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <v>5</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="13">
         <v>45567</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="F12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="10">
+        <v>4</v>
+      </c>
+      <c r="D13" s="13">
+        <v>45569</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="13">
+      <c r="F13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="9">
+        <v>3</v>
+      </c>
+      <c r="D14" s="14">
+        <v>45571</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14">
+        <v>45573</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
+        <v>45575</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3</v>
+      </c>
+      <c r="D17" s="14">
+        <v>45576</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14">
+        <v>45577</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="10">
         <v>4</v>
       </c>
-      <c r="D13" s="14">
-        <v>45569</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="D19" s="14">
+        <v>45580</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="10">
+        <v>5</v>
+      </c>
+      <c r="D20" s="14">
+        <v>45580</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="10">
         <v>3</v>
       </c>
-      <c r="D14" s="18">
-        <v>45571</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="D21" s="14">
+        <v>45582</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="10">
+        <v>5</v>
+      </c>
+      <c r="D22" s="14">
+        <v>45585</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="9">
+        <v>4</v>
+      </c>
+      <c r="D23" s="14">
+        <v>45583</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="9">
+        <v>3</v>
+      </c>
+      <c r="D24" s="14">
+        <v>45583</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="9">
+        <v>6</v>
+      </c>
+      <c r="D25" s="14">
+        <v>45585</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="6">
+        <v>5</v>
+      </c>
+      <c r="D26" s="14">
+        <v>45587</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4</v>
+      </c>
+      <c r="D27" s="14">
+        <v>45590</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="6">
         <v>2</v>
       </c>
-      <c r="D15" s="18">
-        <v>45573</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="D28" s="14">
+        <v>45590</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="C29" s="6">
+        <v>3</v>
+      </c>
+      <c r="D29" s="14">
+        <v>45592</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="F2:G25" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="F2:G36" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
